--- a/CS301/project2/graphs.xlsx
+++ b/CS301/project2/graphs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>secant</t>
   </si>
@@ -142,7 +142,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Equation 1, Root = 0.3650989532470703</a:t>
+              <a:t>f(x) = 2x3 - 11.7x2 + 17.7x -5</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Root = 0.3650989532470703</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -561,11 +570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140380968"/>
-        <c:axId val="140375872"/>
+        <c:axId val="447583088"/>
+        <c:axId val="447584264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140380968"/>
+        <c:axId val="447583088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140375872"/>
+        <c:crossAx val="447584264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140375872"/>
+        <c:axId val="447584264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140380968"/>
+        <c:crossAx val="447583088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +918,21 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Equation 1, Root = 0.3650989532470703</a:t>
+              <a:t>f(x) = 2x3 - 11.7x2 + 17.7x -5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 0.3650989532470703</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
@@ -1335,17 +1358,760 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134355520"/>
-        <c:axId val="134357480"/>
+        <c:axId val="447578776"/>
+        <c:axId val="447579560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134355520"/>
+        <c:axId val="447578776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40057135795144083"/>
+              <c:y val="0.91193436436983411"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447579560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447579560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(et)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447578776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log(ea) versus number of iteratoins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = 2x3 - 11.7x2 + 17.7x -5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 1.9217376708984375</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ea &lt; 0.00001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-0.84509804001425604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.17609125905568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.49136169383427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.78532983501076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0899051114393901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.3891660843645299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6910814921229602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9925535178321301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2938043599193301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.59494473669508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.8960299123962199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.19708749544988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4981036976380802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7991405900947104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.329058719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.31909955200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.31908594099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31908596700000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31908596700000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.9661052052633302E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>False Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.1902671647725298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8651737855623498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5344075560479302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.20240550030063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8701371082911802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Modified Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-3.8413978529280501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="447581128"/>
+        <c:axId val="447584656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447581128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1412,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134357480"/>
+        <c:crossAx val="447584656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134357480"/>
+        <c:axId val="447584656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,6 +2207,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(ea)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1502,7 +2293,3807 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134355520"/>
+        <c:crossAx val="447581128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log(et) versus number of iterations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = 2x3 - 11.7x2 + 17.7x -5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 1.9217376708984375</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ea &lt; 0.00001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.04882853477741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.61402703730738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0860737125943301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0937079918647199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.14593152467463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.3986060490580199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7074770808542898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.0246270727214202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.3598113446197102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.7384461980963599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.2550759940996903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.1001740341139499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6230527793942899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.1001740341139499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.6883662340000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.56645447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.7564271749999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.770359676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.7703596499999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-5.7702279413124398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>False Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.7598665731079501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4273749360572499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0881877145352403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.72412353427623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2684837214187104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Modified Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-5.7888172068670896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="447585048"/>
+        <c:axId val="447577600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447585048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447577600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447577600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(et)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447585048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log(ea) versus number of iteratoins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = 2x3 - 11.7x2 + 17.7x -5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 3.563140869140625</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ea &lt; 0.00001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1.17609125905568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4623979978989501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7558748556724899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.06069784035361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3598354823398799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.65991620006985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9604707775342902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2612628687924898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.5621738633646398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.86314434625266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.1642040993240297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.4652192165391904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7662566514912896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29269085500625802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26279398520751202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0066968505009199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.12387504976681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.09461692896394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.09611771355718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.202256166137568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12571152449993001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3645801851092599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9545147580734402E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>3.3002498596441498E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>False Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.6073932773730699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5316516623157401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9531122819517699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3225453338200301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6712107779970098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0108102784255104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.3463081361397098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.6799211319111098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Modified Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$75:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.5423830943888299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.43204776097499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.78646470525534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444828496"/>
+        <c:axId val="444828104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444828496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444828104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444828104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(ea)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444828496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log(et) versus number of iteratoins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = 2x3 - 11.7x2 + 17.7x -5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 3.563140869140625</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ea &lt; 0.00001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$N$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1.28031866809141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.76042917883413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7450636327932201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0659819945067199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3762014354041701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.6962150652553998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0378991498419299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.4338144719475499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.02589024236892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.3683129231911204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5901616728074801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.06728292752714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.06728292752714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.1777994254933299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0961077923583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.77781738044274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3356515356239602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5933026366099199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.7708154022878198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.2515061127267897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$72:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.702653712698184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.19049504187806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9874223821058901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4736794502965598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2248587668276398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>False Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.3065038175907802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7008166584985198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.0572327424339401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3973896059494701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.7275402700373301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0471299687642599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.3500392871173901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.6240244253903997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Modified Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$76:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2.4119377930126098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7579299153991199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.9545998316195199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444826144"/>
+        <c:axId val="444828888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444826144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444828888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444828888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(et)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444826144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log(ea) versus number of iteratoins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = x + 10 - xcosh(50/x)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 126.63351346432101</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ea &lt; 0.00001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0238152036935912E-2"/>
+          <c:y val="0.22828017260554295"/>
+          <c:w val="0.9414705942142475"/>
+          <c:h val="0.71159726856176875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$101:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.70757017609793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.00432137378264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3074960379132099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6074550232146598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9090208542111502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.2097830148485098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5106790310322098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8117760216029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.1128395108451103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4138862523295996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.7149078751640401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$103:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.2696683499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.281185703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.28087142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2808718910000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2808718910000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2808718910000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2808718910000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$105:$X$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.40614970745795E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.40033489202747E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3945442101195601E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3887775608459E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3830348437668E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.37731595883471E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37162080643909E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3659492873949899E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.36030130294286E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.35467675473711E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.34907554483471E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.34349757572876E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3379427503033301E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.33241097188954E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.32690214417538E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3214161713180699E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3159529578201E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3105124086303901E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.30509442908782E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2996989249210801E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2943258022823E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2889749676905801E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>False Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$107:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.2228120969999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5565742450000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8628039209999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1553855670000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4409990170000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.722999937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0031130199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.2822354310000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5608368270000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.8391638959999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Modified Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.6282496360000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7277686379999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="556654728"/>
+        <c:axId val="556659824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="556654728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556659824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556659824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(ea)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556654728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>log(et) versus number of iteratoins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>f(x) = x + 10 - xcosh(50/x)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Root = 126.63351346432101</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ea &lt; 0.00001</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9133880694474893E-2"/>
+          <c:y val="0.24947234238187782"/>
+          <c:w val="0.87608055546340269"/>
+          <c:h val="0.67654132269436851"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bisection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$L$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.1647868379945501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5187680409172102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7196557353581001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2512079568130199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1719228664988401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2505852633408701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5980646863458601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.0084370503129598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.6786331220332196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.7544925267952403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.7748157339694304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$104:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2.8422614739999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3148942479999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0732325920000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.0701620040000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.0701618770000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0701618770000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.0701618770000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Newton</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$106:$Y$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-2.46912373526045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.47091254055429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4727013261955602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4744900921121902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4762788382318299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4780675644817598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4798562707889298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.4816449570799501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4834336232811101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4852222693183599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4870108951173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4887995006032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4905880857009599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.4923766503352001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.49416519443011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.4959537179096198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4977422206972499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.4995307027161999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.50131916388932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.5031076041391001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.5048960233876998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.5066844215569</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.5084727985681501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>False Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$108:$K$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.2510450670000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.548825962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8378781000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1233365690000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4085049610000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.6965571009999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.9921737190000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.304478875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.655320326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1173464370000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Modified Secant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-4.9993155390000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.0604381079999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="559565640"/>
+        <c:axId val="559151872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559565640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559151872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559151872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(et)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559565640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,6 +6254,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2167,6 +6998,3024 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2726,6 +10575,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292894</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21430</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>164304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326230</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>126205</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292892</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2997,10 +11026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:CG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3408,6 +11437,1276 @@
         <v>-5.82588075697329</v>
       </c>
     </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A33" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B33">
+        <v>-0.84509804001425604</v>
+      </c>
+      <c r="C33">
+        <v>-1.17609125905568</v>
+      </c>
+      <c r="D33">
+        <v>-1.49136169383427</v>
+      </c>
+      <c r="E33">
+        <v>-1.78532983501076</v>
+      </c>
+      <c r="F33">
+        <v>-2.0899051114393901</v>
+      </c>
+      <c r="G33">
+        <v>-2.3891660843645299</v>
+      </c>
+      <c r="H33">
+        <v>-2.6910814921229602</v>
+      </c>
+      <c r="I33">
+        <v>-2.9925535178321301</v>
+      </c>
+      <c r="J33">
+        <v>-3.2938043599193301</v>
+      </c>
+      <c r="K33">
+        <v>-3.59494473669508</v>
+      </c>
+      <c r="L33">
+        <v>-3.8960299123962199</v>
+      </c>
+      <c r="M33">
+        <v>-4.19708749544988</v>
+      </c>
+      <c r="N33">
+        <v>-4.4981036976380802</v>
+      </c>
+      <c r="O33">
+        <v>-4.7991405900947104</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>-0.65865170823156205</v>
+      </c>
+      <c r="B34">
+        <v>-1.04882853477741</v>
+      </c>
+      <c r="C34">
+        <v>-1.61402703730738</v>
+      </c>
+      <c r="D34">
+        <v>-2.0860737125943301</v>
+      </c>
+      <c r="E34">
+        <v>-2.0937079918647199</v>
+      </c>
+      <c r="F34">
+        <v>-4.14593152467463</v>
+      </c>
+      <c r="G34">
+        <v>-2.3986060490580199</v>
+      </c>
+      <c r="H34">
+        <v>-2.7074770808542898</v>
+      </c>
+      <c r="I34">
+        <v>-3.0246270727214202</v>
+      </c>
+      <c r="J34">
+        <v>-3.3598113446197102</v>
+      </c>
+      <c r="K34">
+        <v>-3.7384461980963599</v>
+      </c>
+      <c r="L34">
+        <v>-4.2550759940996903</v>
+      </c>
+      <c r="M34">
+        <v>-5.1001740341139499</v>
+      </c>
+      <c r="N34">
+        <v>-4.6230527793942899</v>
+      </c>
+      <c r="O34">
+        <v>-5.1001740341139499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-0.329058719</v>
+      </c>
+      <c r="D35">
+        <v>-0.31909955200000001</v>
+      </c>
+      <c r="E35">
+        <v>-0.31908594099999998</v>
+      </c>
+      <c r="F35">
+        <v>-0.31908596700000003</v>
+      </c>
+      <c r="G35">
+        <v>-0.31908596700000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-1.6883662340000001</v>
+      </c>
+      <c r="D36">
+        <v>-4.56645447</v>
+      </c>
+      <c r="E36">
+        <v>-5.7564271749999998</v>
+      </c>
+      <c r="F36">
+        <v>-5.770359676</v>
+      </c>
+      <c r="G36">
+        <v>-5.7703596499999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8.9661052052633302E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>-4.05569576239317</v>
+      </c>
+      <c r="C38">
+        <v>-5.7702279413124398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A39" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B39">
+        <v>-2.1902671647725298</v>
+      </c>
+      <c r="C39">
+        <v>-2.8651737855623498</v>
+      </c>
+      <c r="D39">
+        <v>-3.5344075560479302</v>
+      </c>
+      <c r="E39">
+        <v>-4.20240550030063</v>
+      </c>
+      <c r="F39">
+        <v>-4.8701371082911802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>-2.0860737125943198</v>
+      </c>
+      <c r="B40">
+        <v>-2.7598665731079501</v>
+      </c>
+      <c r="C40">
+        <v>-3.4273749360572499</v>
+      </c>
+      <c r="D40">
+        <v>-4.0881877145352403</v>
+      </c>
+      <c r="E40">
+        <v>-4.72412353427623</v>
+      </c>
+      <c r="F40">
+        <v>-5.2684837214187104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A41" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B41">
+        <v>-3.8413978529280501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>-3.8463269183413198</v>
+      </c>
+      <c r="B42">
+        <v>-5.7888172068670896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A67" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B67">
+        <v>-1.17609125905568</v>
+      </c>
+      <c r="C67">
+        <v>-1.4623979978989501</v>
+      </c>
+      <c r="D67">
+        <v>-1.7558748556724899</v>
+      </c>
+      <c r="E67">
+        <v>-2.06069784035361</v>
+      </c>
+      <c r="F67">
+        <v>-2.3598354823398799</v>
+      </c>
+      <c r="G67">
+        <v>-2.65991620006985</v>
+      </c>
+      <c r="H67">
+        <v>-2.9604707775342902</v>
+      </c>
+      <c r="I67">
+        <v>-3.2612628687924898</v>
+      </c>
+      <c r="J67">
+        <v>-3.5621738633646398</v>
+      </c>
+      <c r="K67">
+        <v>-3.86314434625266</v>
+      </c>
+      <c r="L67">
+        <v>-4.1642040993240297</v>
+      </c>
+      <c r="M67">
+        <v>-4.4652192165391904</v>
+      </c>
+      <c r="N67">
+        <v>-4.7662566514912896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>-1.75152243686141</v>
+      </c>
+      <c r="B68">
+        <v>-1.28031866809141</v>
+      </c>
+      <c r="C68">
+        <v>-1.76042917883413</v>
+      </c>
+      <c r="D68">
+        <v>-3.7450636327932201</v>
+      </c>
+      <c r="E68">
+        <v>-2.0659819945067199</v>
+      </c>
+      <c r="F68">
+        <v>-2.3762014354041701</v>
+      </c>
+      <c r="G68">
+        <v>-2.6962150652553998</v>
+      </c>
+      <c r="H68">
+        <v>-3.0378991498419299</v>
+      </c>
+      <c r="I68">
+        <v>-3.4338144719475499</v>
+      </c>
+      <c r="J68">
+        <v>-4.02589024236892</v>
+      </c>
+      <c r="K68">
+        <v>-4.3683129231911204</v>
+      </c>
+      <c r="L68">
+        <v>-4.5901616728074801</v>
+      </c>
+      <c r="M68">
+        <v>-5.06728292752714</v>
+      </c>
+      <c r="N68">
+        <v>-5.06728292752714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.29269085500625802</v>
+      </c>
+      <c r="D69">
+        <v>0.26279398520751202</v>
+      </c>
+      <c r="E69">
+        <v>-1.0066968505009199</v>
+      </c>
+      <c r="F69">
+        <v>-1.12387504976681</v>
+      </c>
+      <c r="G69">
+        <v>-1.09461692896394</v>
+      </c>
+      <c r="H69">
+        <v>-1.09611771355718</v>
+      </c>
+      <c r="I69">
+        <v>-1.09614059306399</v>
+      </c>
+      <c r="J69">
+        <v>-1.0961405734738501</v>
+      </c>
+      <c r="K69">
+        <v>-1.0961405734741101</v>
+      </c>
+      <c r="L69">
+        <v>-1.0961405734741101</v>
+      </c>
+      <c r="M69">
+        <v>-15.6033352080687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>-1.1777994254933299</v>
+      </c>
+      <c r="D70">
+        <v>-1.0961077923583</v>
+      </c>
+      <c r="E70">
+        <v>-1.77781738044274</v>
+      </c>
+      <c r="F70">
+        <v>-2.3356515356239602</v>
+      </c>
+      <c r="G70">
+        <v>-3.5933026366099199</v>
+      </c>
+      <c r="H70">
+        <v>-5.7708154022878198</v>
+      </c>
+      <c r="I70">
+        <v>-5.2515061127267897</v>
+      </c>
+      <c r="J70">
+        <v>-5.2517655631431603</v>
+      </c>
+      <c r="K70">
+        <v>-5.2517655597411901</v>
+      </c>
+      <c r="L70">
+        <v>-5.25176555977019</v>
+      </c>
+      <c r="M70">
+        <v>-5.2517655597508597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0.202256166137568</v>
+      </c>
+      <c r="D71">
+        <v>0.12571152449993001</v>
+      </c>
+      <c r="E71">
+        <v>5.3645801851092599E-2</v>
+      </c>
+      <c r="F71">
+        <v>9.9545147580734402E-3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3.3002498596441498E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>-0.35588010384359797</v>
+      </c>
+      <c r="C72">
+        <v>-0.702653712698184</v>
+      </c>
+      <c r="D72">
+        <v>-1.19049504187806</v>
+      </c>
+      <c r="E72">
+        <v>-1.9874223821058901</v>
+      </c>
+      <c r="F72">
+        <v>-3.4736794502965598</v>
+      </c>
+      <c r="G72">
+        <v>-5.2248587668276398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A73" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B73">
+        <v>-1.6073932773730699</v>
+      </c>
+      <c r="C73">
+        <v>-2.5316516623157401</v>
+      </c>
+      <c r="D73">
+        <v>-2.9531122819517699</v>
+      </c>
+      <c r="E73">
+        <v>-3.3225453338200301</v>
+      </c>
+      <c r="F73">
+        <v>-3.6712107779970098</v>
+      </c>
+      <c r="G73">
+        <v>-4.0108102784255104</v>
+      </c>
+      <c r="H73">
+        <v>-4.3463081361397098</v>
+      </c>
+      <c r="I73">
+        <v>-4.6799211319111098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>-1.7015962724396101</v>
+      </c>
+      <c r="B74">
+        <v>-2.3065038175907802</v>
+      </c>
+      <c r="C74">
+        <v>-2.7008166584985198</v>
+      </c>
+      <c r="D74">
+        <v>-3.0572327424339401</v>
+      </c>
+      <c r="E74">
+        <v>-3.3973896059494701</v>
+      </c>
+      <c r="F74">
+        <v>-3.7275402700373301</v>
+      </c>
+      <c r="G74">
+        <v>-4.0471299687642599</v>
+      </c>
+      <c r="H74">
+        <v>-4.3500392871173901</v>
+      </c>
+      <c r="I74">
+        <v>-4.6240244253903997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A75" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B75">
+        <v>-1.5423830943888299</v>
+      </c>
+      <c r="C75">
+        <v>-2.43204776097499</v>
+      </c>
+      <c r="D75">
+        <v>-3.78646470525534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>-1.48589452498436</v>
+      </c>
+      <c r="B76">
+        <v>-2.4119377930126098</v>
+      </c>
+      <c r="C76">
+        <v>-3.7579299153991199</v>
+      </c>
+      <c r="D76">
+        <v>-4.9545998316195199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A101" t="e">
+        <f>-Infinity</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B101">
+        <v>-1.70757017609793</v>
+      </c>
+      <c r="C101">
+        <v>-2.00432137378264</v>
+      </c>
+      <c r="D101">
+        <v>-2.3074960379132099</v>
+      </c>
+      <c r="E101">
+        <v>-2.6074550232146598</v>
+      </c>
+      <c r="F101">
+        <v>-2.9090208542111502</v>
+      </c>
+      <c r="G101">
+        <v>-3.2097830148485098</v>
+      </c>
+      <c r="H101">
+        <v>-3.5106790310322098</v>
+      </c>
+      <c r="I101">
+        <v>-3.8117760216029</v>
+      </c>
+      <c r="J101">
+        <v>-4.1128395108451103</v>
+      </c>
+      <c r="K101">
+        <v>-4.4138862523295996</v>
+      </c>
+      <c r="L101">
+        <v>-4.7149078751640401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>-1.8894259380801901</v>
+      </c>
+      <c r="B102">
+        <v>-2.1647868379945501</v>
+      </c>
+      <c r="C102">
+        <v>-2.5187680409172102</v>
+      </c>
+      <c r="D102">
+        <v>-2.7196557353581001</v>
+      </c>
+      <c r="E102">
+        <v>-3.2512079568130199</v>
+      </c>
+      <c r="F102">
+        <v>-3.1719228664988401</v>
+      </c>
+      <c r="G102">
+        <v>-4.2505852633408701</v>
+      </c>
+      <c r="H102">
+        <v>-3.5980646863458601</v>
+      </c>
+      <c r="I102">
+        <v>-4.0084370503129598</v>
+      </c>
+      <c r="J102">
+        <v>-4.6786331220332196</v>
+      </c>
+      <c r="K102">
+        <v>-4.7544925267952403</v>
+      </c>
+      <c r="L102">
+        <v>-5.7748157339694304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>-1.2696683499999999</v>
+      </c>
+      <c r="D103">
+        <v>-1.281185703</v>
+      </c>
+      <c r="E103">
+        <v>-1.28087142</v>
+      </c>
+      <c r="F103">
+        <v>-1.2808718910000001</v>
+      </c>
+      <c r="G103">
+        <v>-1.2808718910000001</v>
+      </c>
+      <c r="H103">
+        <v>-1.2808718910000001</v>
+      </c>
+      <c r="I103">
+        <v>-1.2808718910000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>-2.8422614739999998</v>
+      </c>
+      <c r="D104">
+        <v>-4.3148942479999999</v>
+      </c>
+      <c r="E104">
+        <v>-5.0732325920000001</v>
+      </c>
+      <c r="F104">
+        <v>-5.0701620040000002</v>
+      </c>
+      <c r="G104">
+        <v>-5.0701618770000003</v>
+      </c>
+      <c r="H104">
+        <v>-5.0701618770000003</v>
+      </c>
+      <c r="I104">
+        <v>-5.0701618770000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.40614970745795E-5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1.40033489202747E-5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1.3945442101195601E-5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1.3887775608459E-5</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1.3830348437668E-5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1.37731595883471E-5</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1.37162080643909E-5</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1.3659492873949899E-5</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1.36030130294286E-5</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1.35467675473711E-5</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1.34907554483471E-5</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1.34349757572876E-5</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1.3379427503033301E-5</v>
+      </c>
+      <c r="P105" s="1">
+        <v>1.33241097188954E-5</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>1.32690214417538E-5</v>
+      </c>
+      <c r="R105" s="1">
+        <v>1.3214161713180699E-5</v>
+      </c>
+      <c r="S105" s="1">
+        <v>1.3159529578201E-5</v>
+      </c>
+      <c r="T105" s="1">
+        <v>1.3105124086303901E-5</v>
+      </c>
+      <c r="U105" s="1">
+        <v>1.30509442908782E-5</v>
+      </c>
+      <c r="V105" s="1">
+        <v>1.2996989249210801E-5</v>
+      </c>
+      <c r="W105" s="1">
+        <v>1.2943258022823E-5</v>
+      </c>
+      <c r="X105" s="1">
+        <v>1.2889749676905801E-5</v>
+      </c>
+      <c r="Y105" s="1">
+        <v>1.2836463280881399E-5</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>1.2783397907839E-5</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>1.27305526350957E-5</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>1.26779265436324E-5</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>1.2625518718430001E-5</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>1.2573328248242801E-5</v>
+      </c>
+      <c r="AE105" s="1">
+        <v>1.2521354225822E-5</v>
+      </c>
+      <c r="AF105" s="1">
+        <v>1.2469595747577E-5</v>
+      </c>
+      <c r="AG105" s="1">
+        <v>1.2418051913910899E-5</v>
+      </c>
+      <c r="AH105" s="1">
+        <v>1.2366721828882201E-5</v>
+      </c>
+      <c r="AI105" s="1">
+        <v>1.2315604600427801E-5</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>1.2264699340361999E-5</v>
+      </c>
+      <c r="AK105" s="1">
+        <v>1.22140051638125E-5</v>
+      </c>
+      <c r="AL105" s="1">
+        <v>1.2163521190343899E-5</v>
+      </c>
+      <c r="AM105" s="1">
+        <v>1.21132465424936E-5</v>
+      </c>
+      <c r="AN105" s="1">
+        <v>1.20631803471213E-5</v>
+      </c>
+      <c r="AO105" s="1">
+        <v>1.20133217342814E-5</v>
+      </c>
+      <c r="AP105" s="1">
+        <v>1.1963669838235299E-5</v>
+      </c>
+      <c r="AQ105" s="1">
+        <v>1.19142237963242E-5</v>
+      </c>
+      <c r="AR105" s="1">
+        <v>1.18649827499811E-5</v>
+      </c>
+      <c r="AS105" s="1">
+        <v>1.18159458440535E-5</v>
+      </c>
+      <c r="AT105" s="1">
+        <v>1.1767112226915501E-5</v>
+      </c>
+      <c r="AU105" s="1">
+        <v>1.1718481050916E-5</v>
+      </c>
+      <c r="AV105" s="1">
+        <v>1.16700514714777E-5</v>
+      </c>
+      <c r="AW105" s="1">
+        <v>1.16218226479955E-5</v>
+      </c>
+      <c r="AX105" s="1">
+        <v>1.1573793743160601E-5</v>
+      </c>
+      <c r="AY105" s="1">
+        <v>1.15259639232965E-5</v>
+      </c>
+      <c r="AZ105" s="1">
+        <v>1.1478332358358101E-5</v>
+      </c>
+      <c r="BA105" s="1">
+        <v>1.14308982215923E-5</v>
+      </c>
+      <c r="BB105" s="1">
+        <v>1.13836606897626E-5</v>
+      </c>
+      <c r="BC105" s="1">
+        <v>1.13366189432599E-5</v>
+      </c>
+      <c r="BD105" s="1">
+        <v>1.1289772165763801E-5</v>
+      </c>
+      <c r="BE105" s="1">
+        <v>1.1243119544579301E-5</v>
+      </c>
+      <c r="BF105" s="1">
+        <v>1.1196660270185E-5</v>
+      </c>
+      <c r="BG105" s="1">
+        <v>1.1150393536795101E-5</v>
+      </c>
+      <c r="BH105" s="1">
+        <v>1.11043185415703E-5</v>
+      </c>
+      <c r="BI105" s="1">
+        <v>1.10584344856294E-5</v>
+      </c>
+      <c r="BJ105" s="1">
+        <v>1.10127405730355E-5</v>
+      </c>
+      <c r="BK105" s="1">
+        <v>1.09672360112448E-5</v>
+      </c>
+      <c r="BL105" s="1">
+        <v>1.09219200113309E-5</v>
+      </c>
+      <c r="BM105" s="1">
+        <v>1.0876791787308199E-5</v>
+      </c>
+      <c r="BN105" s="1">
+        <v>1.08318505568061E-5</v>
+      </c>
+      <c r="BO105" s="1">
+        <v>1.07870955406178E-5</v>
+      </c>
+      <c r="BP105" s="1">
+        <v>1.07425259628117E-5</v>
+      </c>
+      <c r="BQ105" s="1">
+        <v>1.06981410507305E-5</v>
+      </c>
+      <c r="BR105" s="1">
+        <v>1.06539400351023E-5</v>
+      </c>
+      <c r="BS105" s="1">
+        <v>1.06099221495901E-5</v>
+      </c>
+      <c r="BT105" s="1">
+        <v>1.05660866315776E-5</v>
+      </c>
+      <c r="BU105" s="1">
+        <v>1.0522432721156199E-5</v>
+      </c>
+      <c r="BV105" s="1">
+        <v>1.0478959661798601E-5</v>
+      </c>
+      <c r="BW105" s="1">
+        <v>1.0435666700358001E-5</v>
+      </c>
+      <c r="BX105" s="1">
+        <v>1.0392553086504599E-5</v>
+      </c>
+      <c r="BY105" s="1">
+        <v>1.03496180733995E-5</v>
+      </c>
+      <c r="BZ105" s="1">
+        <v>1.03068609171312E-5</v>
+      </c>
+      <c r="CA105" s="1">
+        <v>1.02642808769398E-5</v>
+      </c>
+      <c r="CB105" s="1">
+        <v>1.0221877215328099E-5</v>
+      </c>
+      <c r="CC105" s="1">
+        <v>1.0179649197836101E-5</v>
+      </c>
+      <c r="CD105" s="1">
+        <v>1.01375960929275E-5</v>
+      </c>
+      <c r="CE105" s="1">
+        <v>1.00957171724384E-5</v>
+      </c>
+      <c r="CF105" s="1">
+        <v>1.0054011710901701E-5</v>
+      </c>
+      <c r="CG105" s="1">
+        <v>1.00124789863333E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>-2.46733491038575</v>
+      </c>
+      <c r="C106">
+        <v>-2.46912373526045</v>
+      </c>
+      <c r="D106">
+        <v>-2.47091254055429</v>
+      </c>
+      <c r="E106">
+        <v>-2.4727013261955602</v>
+      </c>
+      <c r="F106">
+        <v>-2.4744900921121902</v>
+      </c>
+      <c r="G106">
+        <v>-2.4762788382318299</v>
+      </c>
+      <c r="H106">
+        <v>-2.4780675644817598</v>
+      </c>
+      <c r="I106">
+        <v>-2.4798562707889298</v>
+      </c>
+      <c r="J106">
+        <v>-2.4816449570799501</v>
+      </c>
+      <c r="K106">
+        <v>-2.4834336232811101</v>
+      </c>
+      <c r="L106">
+        <v>-2.4852222693183599</v>
+      </c>
+      <c r="M106">
+        <v>-2.4870108951173</v>
+      </c>
+      <c r="N106">
+        <v>-2.4887995006032</v>
+      </c>
+      <c r="O106">
+        <v>-2.4905880857009599</v>
+      </c>
+      <c r="P106">
+        <v>-2.4923766503352001</v>
+      </c>
+      <c r="Q106">
+        <v>-2.49416519443011</v>
+      </c>
+      <c r="R106">
+        <v>-2.4959537179096198</v>
+      </c>
+      <c r="S106">
+        <v>-2.4977422206972499</v>
+      </c>
+      <c r="T106">
+        <v>-2.4995307027161999</v>
+      </c>
+      <c r="U106">
+        <v>-2.50131916388932</v>
+      </c>
+      <c r="V106">
+        <v>-2.5031076041391001</v>
+      </c>
+      <c r="W106">
+        <v>-2.5048960233876998</v>
+      </c>
+      <c r="X106">
+        <v>-2.5066844215569</v>
+      </c>
+      <c r="Y106">
+        <v>-2.5084727985681501</v>
+      </c>
+      <c r="Z106">
+        <v>-2.5102611543425</v>
+      </c>
+      <c r="AA106">
+        <v>-2.5120494888007099</v>
+      </c>
+      <c r="AB106">
+        <v>-2.51383780186314</v>
+      </c>
+      <c r="AC106">
+        <v>-2.5156260934497898</v>
+      </c>
+      <c r="AD106">
+        <v>-2.5174143634803201</v>
+      </c>
+      <c r="AE106">
+        <v>-2.5192026118740101</v>
+      </c>
+      <c r="AF106">
+        <v>-2.5209908385497801</v>
+      </c>
+      <c r="AG106">
+        <v>-2.5227790434261999</v>
+      </c>
+      <c r="AH106">
+        <v>-2.52456722642144</v>
+      </c>
+      <c r="AI106">
+        <v>-2.5263553874533402</v>
+      </c>
+      <c r="AJ106">
+        <v>-2.5281435264393601</v>
+      </c>
+      <c r="AK106">
+        <v>-2.5299316432965702</v>
+      </c>
+      <c r="AL106">
+        <v>-2.5317197379417</v>
+      </c>
+      <c r="AM106">
+        <v>-2.53350781029109</v>
+      </c>
+      <c r="AN106">
+        <v>-2.5352958602607001</v>
+      </c>
+      <c r="AO106">
+        <v>-2.5370838877661099</v>
+      </c>
+      <c r="AP106">
+        <v>-2.5388718927225602</v>
+      </c>
+      <c r="AQ106">
+        <v>-2.5406598750448701</v>
+      </c>
+      <c r="AR106">
+        <v>-2.5424478346475099</v>
+      </c>
+      <c r="AS106">
+        <v>-2.54423577144455</v>
+      </c>
+      <c r="AT106">
+        <v>-2.5460236853496698</v>
+      </c>
+      <c r="AU106">
+        <v>-2.5478115762762101</v>
+      </c>
+      <c r="AV106">
+        <v>-2.5495994441370602</v>
+      </c>
+      <c r="AW106">
+        <v>-2.5513872888447899</v>
+      </c>
+      <c r="AX106">
+        <v>-2.5531751103115199</v>
+      </c>
+      <c r="AY106">
+        <v>-2.5549629084490202</v>
+      </c>
+      <c r="AZ106">
+        <v>-2.5567506831686702</v>
+      </c>
+      <c r="BA106">
+        <v>-2.5585384343814401</v>
+      </c>
+      <c r="BB106">
+        <v>-2.5603261619979101</v>
+      </c>
+      <c r="BC106">
+        <v>-2.5621138659282701</v>
+      </c>
+      <c r="BD106">
+        <v>-2.56390154608231</v>
+      </c>
+      <c r="BE106">
+        <v>-2.5656892023694202</v>
+      </c>
+      <c r="BF106">
+        <v>-2.5674768346985899</v>
+      </c>
+      <c r="BG106">
+        <v>-2.5692644429784299</v>
+      </c>
+      <c r="BH106">
+        <v>-2.5710520271170898</v>
+      </c>
+      <c r="BI106">
+        <v>-2.5728395870223699</v>
+      </c>
+      <c r="BJ106">
+        <v>-2.5746271226016701</v>
+      </c>
+      <c r="BK106">
+        <v>-2.5764146337619298</v>
+      </c>
+      <c r="BL106">
+        <v>-2.5782021204097298</v>
+      </c>
+      <c r="BM106">
+        <v>-2.5799895824512098</v>
+      </c>
+      <c r="BN106">
+        <v>-2.5817770197921202</v>
+      </c>
+      <c r="BO106">
+        <v>-2.5835644323377802</v>
+      </c>
+      <c r="BP106">
+        <v>-2.58535181999311</v>
+      </c>
+      <c r="BQ106">
+        <v>-2.5871391826625798</v>
+      </c>
+      <c r="BR106">
+        <v>-2.5889265202502898</v>
+      </c>
+      <c r="BS106">
+        <v>-2.5907138326598602</v>
+      </c>
+      <c r="BT106">
+        <v>-2.5925011197945702</v>
+      </c>
+      <c r="BU106">
+        <v>-2.5942883815572202</v>
+      </c>
+      <c r="BV106">
+        <v>-2.59607561785017</v>
+      </c>
+      <c r="BW106">
+        <v>-2.5978628285754199</v>
+      </c>
+      <c r="BX106">
+        <v>-2.59965001363447</v>
+      </c>
+      <c r="BY106">
+        <v>-2.60143717292845</v>
+      </c>
+      <c r="BZ106">
+        <v>-2.6032243063580198</v>
+      </c>
+      <c r="CA106">
+        <v>-2.6050114138234202</v>
+      </c>
+      <c r="CB106">
+        <v>-2.6067984952244601</v>
+      </c>
+      <c r="CC106">
+        <v>-2.60858555046052</v>
+      </c>
+      <c r="CD106">
+        <v>-2.6103725794305199</v>
+      </c>
+      <c r="CE106">
+        <v>-2.6121595820329802</v>
+      </c>
+      <c r="CF106">
+        <v>-2.61394655816592</v>
+      </c>
+      <c r="CG106">
+        <v>-2.6157335077269801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A107" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="B107">
+        <v>-2.2228120969999998</v>
+      </c>
+      <c r="C107">
+        <v>-2.5565742450000002</v>
+      </c>
+      <c r="D107">
+        <v>-2.8628039209999998</v>
+      </c>
+      <c r="E107">
+        <v>-3.1553855670000002</v>
+      </c>
+      <c r="F107">
+        <v>-3.4409990170000002</v>
+      </c>
+      <c r="G107">
+        <v>-3.722999937</v>
+      </c>
+      <c r="H107">
+        <v>-4.0031130199999998</v>
+      </c>
+      <c r="I107">
+        <v>-4.2822354310000001</v>
+      </c>
+      <c r="J107">
+        <v>-4.5608368270000001</v>
+      </c>
+      <c r="K107">
+        <v>-4.8391638959999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>-1.934413264</v>
+      </c>
+      <c r="B108">
+        <v>-2.2510450670000002</v>
+      </c>
+      <c r="C108">
+        <v>-2.548825962</v>
+      </c>
+      <c r="D108">
+        <v>-2.8378781000000002</v>
+      </c>
+      <c r="E108">
+        <v>-3.1233365690000001</v>
+      </c>
+      <c r="F108">
+        <v>-3.4085049610000002</v>
+      </c>
+      <c r="G108">
+        <v>-3.6965571009999998</v>
+      </c>
+      <c r="H108">
+        <v>-3.9921737190000002</v>
+      </c>
+      <c r="I108">
+        <v>-4.304478875</v>
+      </c>
+      <c r="J108">
+        <v>-4.655320326</v>
+      </c>
+      <c r="K108">
+        <v>-5.1173464370000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A109" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="B109">
+        <v>-2.6282496360000001</v>
+      </c>
+      <c r="C109">
+        <v>-4.7277686379999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:85" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>-2.6300972800000002</v>
+      </c>
+      <c r="B110">
+        <v>-4.9993155390000004</v>
+      </c>
+      <c r="C110">
+        <v>-5.0604381079999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
